--- a/submission/source_data.xlsx
+++ b/submission/source_data.xlsx
@@ -9,24 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Fig. 2" sheetId="1" r:id="rId1"/>
     <sheet name="Fig. 3" sheetId="4" r:id="rId2"/>
-    <sheet name="ED2" sheetId="3" r:id="rId3"/>
-    <sheet name="ED3" sheetId="5" r:id="rId4"/>
-    <sheet name="ED4" sheetId="6" r:id="rId5"/>
-    <sheet name="ED6" sheetId="7" r:id="rId6"/>
-    <sheet name="ED7" sheetId="8" r:id="rId7"/>
-    <sheet name="S4" sheetId="2" r:id="rId8"/>
+    <sheet name="ED1" sheetId="9" r:id="rId3"/>
+    <sheet name="ED2" sheetId="11" r:id="rId4"/>
+    <sheet name="ED3" sheetId="3" r:id="rId5"/>
+    <sheet name="ED4" sheetId="5" r:id="rId6"/>
+    <sheet name="ED5" sheetId="6" r:id="rId7"/>
+    <sheet name="ED6" sheetId="10" r:id="rId8"/>
+    <sheet name="ED7" sheetId="7" r:id="rId9"/>
+    <sheet name="ED8" sheetId="8" r:id="rId10"/>
+    <sheet name="S4" sheetId="2" r:id="rId11"/>
+    <sheet name="Other figures" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
   <si>
     <t/>
   </si>
@@ -237,16 +241,294 @@
     <t>Aid is not effective as most of it is diverted</t>
   </si>
   <si>
-    <t>Aid is a pressure tactic for high-income countries that
-prevents low-income countries from developing freely</t>
-  </si>
-  <si>
     <t>[Country] is not responsible for
 what happens in other countries</t>
   </si>
   <si>
     <t>Charity begins at home: there is already a lot
 to do to support the [country] people in need</t>
+  </si>
+  <si>
+    <t>Aid is a pressure tactic for high-income countries that prevents low-income countries from developing freely</t>
+  </si>
+  <si>
+    <t>Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t>National redistribution scheme (NR)</t>
+  </si>
+  <si>
+    <t>National climate policy + GCS + NR</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Should [Country]'s foreign aid be increased?&lt;/b&gt;&lt;br&gt;France</t>
+  </si>
+  <si>
+    <t>No, should be reduced</t>
+  </si>
+  <si>
+    <t>No, should remain stable</t>
+  </si>
+  <si>
+    <t>Yes, but at some conditions</t>
+  </si>
+  <si>
+    <t>Yes, should be increased</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>95% CI (low)</t>
+  </si>
+  <si>
+    <t>95% CI (high)</t>
+  </si>
+  <si>
+    <t>us1; Ban the sale of new combustion-engine cars by 2030</t>
+  </si>
+  <si>
+    <t>us1; Coal exit</t>
+  </si>
+  <si>
+    <t>us1; Trillion dollar investment in clean transportation infrastructure and building insulation</t>
+  </si>
+  <si>
+    <t>us1; $15 minimum wage</t>
+  </si>
+  <si>
+    <t>us1; Funding affordable housing</t>
+  </si>
+  <si>
+    <t>us1; Student loan forgiveness</t>
+  </si>
+  <si>
+    <t>us1; Universal childcare/pre-K</t>
+  </si>
+  <si>
+    <t>us1; Doubling foreign aid</t>
+  </si>
+  <si>
+    <t>us1; Global climate scheme</t>
+  </si>
+  <si>
+    <t>us1; Global democratic assembly on climate change</t>
+  </si>
+  <si>
+    <t>us1; Global tax on millionaires</t>
+  </si>
+  <si>
+    <t>us1; Expanding the Supreme Court</t>
+  </si>
+  <si>
+    <t>us1; Handgun ban</t>
+  </si>
+  <si>
+    <t>us1; Making abortion a right at the federal level</t>
+  </si>
+  <si>
+    <t>us1; Increase corporate income tax rate from 21% to 28%</t>
+  </si>
+  <si>
+    <t>us1; National redistribution scheme</t>
+  </si>
+  <si>
+    <t>us1; Wealth tax</t>
+  </si>
+  <si>
+    <t>FR_en; Prohibition of the most polluting vehicles in city centers (ZFE)</t>
+  </si>
+  <si>
+    <t>FR_en; Plan for thermal insulation</t>
+  </si>
+  <si>
+    <t>FR_en; Ban on the sale of new thermal cars by 2030</t>
+  </si>
+  <si>
+    <t>FR_en; Welfare (RSA) payment to unemployed 18-25 year olds</t>
+  </si>
+  <si>
+    <t>FR_en; Minimum wage (SMIC) at 1600€/month net</t>
+  </si>
+  <si>
+    <t>FR_en; Raising the legal retirement age to 65</t>
+  </si>
+  <si>
+    <t>FR_en; 20% increase in funding for public hospitals and National Education</t>
+  </si>
+  <si>
+    <t>FR_en; Global Climate Plan</t>
+  </si>
+  <si>
+    <t>FR_en; Global Millionaire Tax</t>
+  </si>
+  <si>
+    <t>FR_en; Global Democratic Assembly on Climate Change</t>
+  </si>
+  <si>
+    <t>FR_en; Double foreign aid to low-income countries</t>
+  </si>
+  <si>
+    <t>FR_en; Proportional election of MPs</t>
+  </si>
+  <si>
+    <t>FR_en; Citizens' Initiative Referendum (RIC)</t>
+  </si>
+  <si>
+    <t>FR_en; National redistribution plan</t>
+  </si>
+  <si>
+    <t>FR_en; Reinstatement of the wealth tax (ISF)</t>
+  </si>
+  <si>
+    <t>DE_en; Obligatory solar systems on all suitable roofs</t>
+  </si>
+  <si>
+    <t>DE_en; Thermal insulation plan</t>
+  </si>
+  <si>
+    <t>DE_en; Ban on the sale of new cars with internal combustion engines by 2030</t>
+  </si>
+  <si>
+    <t>DE_en; Increase in the standard rate of citizen income to up to €600 per month</t>
+  </si>
+  <si>
+    <t>DE_en; Citizens' insurance (Bürgerversicherung) as fairer social insurance</t>
+  </si>
+  <si>
+    <t>DE_en; Reduce the national debt ratio to below 60%</t>
+  </si>
+  <si>
+    <t>DE_en; Deploy investments for gigabit networks</t>
+  </si>
+  <si>
+    <t>DE_en; Global Climate Plan</t>
+  </si>
+  <si>
+    <t>DE_en; Global Millionaire Tax</t>
+  </si>
+  <si>
+    <t>DE_en; Global Democratic Assembly on Climate Change</t>
+  </si>
+  <si>
+    <t>DE_en; Double foreign aid to low-income countries</t>
+  </si>
+  <si>
+    <t>DE_en; Referendum at the federal level</t>
+  </si>
+  <si>
+    <t>DE_en; Cannabis Legalization</t>
+  </si>
+  <si>
+    <t>DE_en; National redistribution plan</t>
+  </si>
+  <si>
+    <t>DE_en; Reinstate the wealth tax</t>
+  </si>
+  <si>
+    <t>ES_en; 100% electricity produced with renewable energy by 2040</t>
+  </si>
+  <si>
+    <t>ES_en; Thermal insulation plan</t>
+  </si>
+  <si>
+    <t>ES_en; Ban the sale of new cars with combustion engines by 2030</t>
+  </si>
+  <si>
+    <t>ES_en; Broader health coverage within the public system (dental care, glasses, mental health)</t>
+  </si>
+  <si>
+    <t>ES_en; Guaranteed Basic Income of €600 per month</t>
+  </si>
+  <si>
+    <t>ES_en; 34 hour work week</t>
+  </si>
+  <si>
+    <t>ES_en; Investment in the educational system and universalization of preschool education</t>
+  </si>
+  <si>
+    <t>ES_en; Global Climate Plan</t>
+  </si>
+  <si>
+    <t>ES_en; Global Millionaire Tax</t>
+  </si>
+  <si>
+    <t>ES_en; Global Democratic Assembly on Climate Change</t>
+  </si>
+  <si>
+    <t>ES_en; Double foreign aid to low-income countries</t>
+  </si>
+  <si>
+    <t>ES_en; Reform the electoral law to make the Senate more proportional</t>
+  </si>
+  <si>
+    <t>ES_en; Abolition of prostitution</t>
+  </si>
+  <si>
+    <t>ES_en; National redistribution plan</t>
+  </si>
+  <si>
+    <t>ES_en; Increase taxes on income above 100,000 euros per year</t>
+  </si>
+  <si>
+    <t>UK; Ban of most polluting vehicles in city centers (low-emission zones)</t>
+  </si>
+  <si>
+    <t>UK; Thermal insulation plan</t>
+  </si>
+  <si>
+    <t>UK; Ban the sale of new combustion-engine cars by 2030</t>
+  </si>
+  <si>
+    <t>UK; £150 billion to upgrade schools, hospitals, care homes and council houses</t>
+  </si>
+  <si>
+    <t>UK; Real Living Wage of £11 per hour for all workers aged 16 and over</t>
+  </si>
+  <si>
+    <t>UK; Reduce the average full-time weekly working hours to 32</t>
+  </si>
+  <si>
+    <t>UK; Re-establish neighbourhood policing and recruit 2,000 more frontline officers</t>
+  </si>
+  <si>
+    <t>UK; Global climate scheme</t>
+  </si>
+  <si>
+    <t>UK; Global tax on millionaires</t>
+  </si>
+  <si>
+    <t>UK; Global democratic assembly on climate change</t>
+  </si>
+  <si>
+    <t>UK; Doubling foreign aid</t>
+  </si>
+  <si>
+    <t>UK; Strict enforcement of immigration and border legislation</t>
+  </si>
+  <si>
+    <t>UK; Legalization of cannabis</t>
+  </si>
+  <si>
+    <t>UK; National redistribution scheme</t>
+  </si>
+  <si>
+    <t>UK; Wealth tax</t>
+  </si>
+  <si>
+    <t>Cf. https://github.com/bixiou/international_attitudes_toward_global_policies/tree/main/xlsx/country_comparison</t>
+  </si>
+  <si>
+    <t>For a figure's data, the filename is given in the figure's caption (in monospaced font)</t>
   </si>
 </sst>
 </file>
@@ -282,11 +564,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1499,11 +1782,1100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>0.29024311000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.299998088</v>
+      </c>
+      <c r="D2">
+        <v>0.31030337200000002</v>
+      </c>
+      <c r="E2">
+        <v>0.34935455100000001</v>
+      </c>
+      <c r="F2">
+        <v>0.31352722900000002</v>
+      </c>
+      <c r="G2">
+        <v>0.23501894100000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>0.401710495</v>
+      </c>
+      <c r="C3">
+        <v>0.53390605899999999</v>
+      </c>
+      <c r="D3">
+        <v>0.48485575199999997</v>
+      </c>
+      <c r="E3">
+        <v>0.57209744699999998</v>
+      </c>
+      <c r="F3">
+        <v>0.60203769500000004</v>
+      </c>
+      <c r="G3">
+        <v>0.48862726299999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>0.15657132200000001</v>
+      </c>
+      <c r="C4">
+        <v>0.15736963800000001</v>
+      </c>
+      <c r="D4">
+        <v>0.151307635</v>
+      </c>
+      <c r="E4">
+        <v>0.14229081800000001</v>
+      </c>
+      <c r="F4">
+        <v>0.23097300800000001</v>
+      </c>
+      <c r="G4">
+        <v>0.13397402999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>0.44955113600000002</v>
+      </c>
+      <c r="C5">
+        <v>0.299947036</v>
+      </c>
+      <c r="D5">
+        <v>0.28129925099999997</v>
+      </c>
+      <c r="E5">
+        <v>0.30291235100000002</v>
+      </c>
+      <c r="F5">
+        <v>0.20443979000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.36719475600000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>0.62972726599999995</v>
+      </c>
+      <c r="C6">
+        <v>0.62933232699999997</v>
+      </c>
+      <c r="D6">
+        <v>0.51228071100000006</v>
+      </c>
+      <c r="E6">
+        <v>0.61776669900000003</v>
+      </c>
+      <c r="F6">
+        <v>0.70639112800000003</v>
+      </c>
+      <c r="G6">
+        <v>0.69394445299999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0.853161104</v>
+      </c>
+      <c r="C2">
+        <v>0.78015522699999995</v>
+      </c>
+      <c r="D2">
+        <v>0.87007912899999995</v>
+      </c>
+      <c r="E2">
+        <v>0.80524842900000004</v>
+      </c>
+      <c r="F2">
+        <v>0.85466962700000004</v>
+      </c>
+      <c r="G2">
+        <v>0.87953823200000003</v>
+      </c>
+      <c r="H2">
+        <v>0.91940944400000002</v>
+      </c>
+      <c r="I2">
+        <v>0.94263246899999997</v>
+      </c>
+      <c r="J2">
+        <v>0.88291280500000002</v>
+      </c>
+      <c r="K2">
+        <v>0.85795714899999997</v>
+      </c>
+      <c r="L2">
+        <v>0.88091636600000001</v>
+      </c>
+      <c r="M2">
+        <v>0.88455220499999998</v>
+      </c>
+      <c r="N2">
+        <v>0.69801639500000001</v>
+      </c>
+      <c r="O2">
+        <v>0.84543004899999996</v>
+      </c>
+      <c r="P2">
+        <v>0.87973226500000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.86872614299999995</v>
+      </c>
+      <c r="R2">
+        <v>0.78234193600000002</v>
+      </c>
+      <c r="S2">
+        <v>0.85758700099999996</v>
+      </c>
+      <c r="T2">
+        <v>0.87993380600000004</v>
+      </c>
+      <c r="U2">
+        <v>0.90443271800000002</v>
+      </c>
+      <c r="V2">
+        <v>0.81931901500000004</v>
+      </c>
+      <c r="W2">
+        <v>0.76465992500000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0.46357797899999997</v>
+      </c>
+      <c r="C3">
+        <v>0.66611469199999995</v>
+      </c>
+      <c r="D3">
+        <v>0.57878127899999998</v>
+      </c>
+      <c r="E3">
+        <v>0.47512339999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.36557424100000002</v>
+      </c>
+      <c r="G3">
+        <v>0.48026952000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.29990773999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.39676019299999998</v>
+      </c>
+      <c r="L3">
+        <v>0.39560696200000001</v>
+      </c>
+      <c r="M3">
+        <v>0.466793862</v>
+      </c>
+      <c r="N3">
+        <v>0.51847378899999996</v>
+      </c>
+      <c r="O3">
+        <v>0.47874950500000002</v>
+      </c>
+      <c r="P3">
+        <v>0.47819177299999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.60874776200000003</v>
+      </c>
+      <c r="R3">
+        <v>0.67270099299999997</v>
+      </c>
+      <c r="S3">
+        <v>0.49628271099999999</v>
+      </c>
+      <c r="T3">
+        <v>0.40561094399999997</v>
+      </c>
+      <c r="U3">
+        <v>0.42464001899999998</v>
+      </c>
+      <c r="V3">
+        <v>0.41490992100000001</v>
+      </c>
+      <c r="W3">
+        <v>0.23794570200000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0.43869454499999999</v>
+      </c>
+      <c r="C4">
+        <v>0.54295799600000005</v>
+      </c>
+      <c r="D4">
+        <v>0.50213036700000002</v>
+      </c>
+      <c r="E4">
+        <v>0.44786762000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.27021313299999999</v>
+      </c>
+      <c r="G4">
+        <v>0.447877513</v>
+      </c>
+      <c r="H4">
+        <v>0.28453363100000001</v>
+      </c>
+      <c r="I4">
+        <v>0.50203435799999996</v>
+      </c>
+      <c r="J4">
+        <v>0.376472796</v>
+      </c>
+      <c r="K4">
+        <v>0.65151333899999997</v>
+      </c>
+      <c r="L4">
+        <v>0.33760651800000002</v>
+      </c>
+      <c r="M4">
+        <v>0.52550202300000004</v>
+      </c>
+      <c r="N4">
+        <v>0.40523719699999999</v>
+      </c>
+      <c r="O4">
+        <v>0.42298634400000001</v>
+      </c>
+      <c r="P4">
+        <v>0.36380098100000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.31712601800000001</v>
+      </c>
+      <c r="R4">
+        <v>0.58921354299999995</v>
+      </c>
+      <c r="S4">
+        <v>0.35056500499999999</v>
+      </c>
+      <c r="T4">
+        <v>0.26493150900000001</v>
+      </c>
+      <c r="U4">
+        <v>0.533224319</v>
+      </c>
+      <c r="V4">
+        <v>0.58003423700000001</v>
+      </c>
+      <c r="W4">
+        <v>0.34552078600000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0.360598961</v>
+      </c>
+      <c r="C5">
+        <v>0.47785629899999998</v>
+      </c>
+      <c r="D5">
+        <v>0.45146365799999999</v>
+      </c>
+      <c r="E5">
+        <v>0.32600509700000002</v>
+      </c>
+      <c r="F5">
+        <v>0.26048189300000002</v>
+      </c>
+      <c r="G5">
+        <v>0.37400142800000002</v>
+      </c>
+      <c r="H5">
+        <v>0.237916605</v>
+      </c>
+      <c r="I5">
+        <v>0.35036436799999998</v>
+      </c>
+      <c r="J5">
+        <v>0.37401780899999998</v>
+      </c>
+      <c r="K5">
+        <v>0.40516226799999999</v>
+      </c>
+      <c r="L5">
+        <v>0.29574097199999999</v>
+      </c>
+      <c r="M5">
+        <v>0.43159830799999999</v>
+      </c>
+      <c r="N5">
+        <v>0.35477568700000001</v>
+      </c>
+      <c r="O5">
+        <v>0.34899837700000003</v>
+      </c>
+      <c r="P5">
+        <v>0.35457351100000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.28619340799999998</v>
+      </c>
+      <c r="R5">
+        <v>0.49831179399999997</v>
+      </c>
+      <c r="S5">
+        <v>0.24278460900000001</v>
+      </c>
+      <c r="T5">
+        <v>0.27899824299999998</v>
+      </c>
+      <c r="U5">
+        <v>0.42311690699999999</v>
+      </c>
+      <c r="V5">
+        <v>0.41267522200000001</v>
+      </c>
+      <c r="W5">
+        <v>0.26567793299999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0.62357437000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.57382170399999999</v>
+      </c>
+      <c r="D6">
+        <v>0.64408755399999995</v>
+      </c>
+      <c r="G6">
+        <v>0.52181829499999999</v>
+      </c>
+      <c r="H6">
+        <v>0.68709305600000004</v>
+      </c>
+      <c r="I6">
+        <v>0.50346064099999999</v>
+      </c>
+      <c r="J6">
+        <v>0.58674214300000005</v>
+      </c>
+      <c r="K6">
+        <v>0.70963411399999998</v>
+      </c>
+      <c r="L6">
+        <v>0.71090014999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.65846701600000002</v>
+      </c>
+      <c r="O6">
+        <v>0.74212620699999998</v>
+      </c>
+      <c r="P6">
+        <v>0.68697894299999995</v>
+      </c>
+      <c r="Q6">
+        <v>0.78030047599999997</v>
+      </c>
+      <c r="R6">
+        <v>0.78232831899999999</v>
+      </c>
+      <c r="S6">
+        <v>0.76830991699999995</v>
+      </c>
+      <c r="T6">
+        <v>0.75706812800000001</v>
+      </c>
+      <c r="U6">
+        <v>0.71112708499999999</v>
+      </c>
+      <c r="V6">
+        <v>0.67742841300000001</v>
+      </c>
+      <c r="W6">
+        <v>0.75698025199999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0.62565037099999998</v>
+      </c>
+      <c r="C7">
+        <v>0.61532075500000005</v>
+      </c>
+      <c r="D7">
+        <v>0.590426122</v>
+      </c>
+      <c r="E7">
+        <v>0.55049380299999995</v>
+      </c>
+      <c r="F7">
+        <v>0.71276642800000001</v>
+      </c>
+      <c r="G7">
+        <v>0.55477363700000004</v>
+      </c>
+      <c r="H7">
+        <v>0.68080244199999995</v>
+      </c>
+      <c r="I7">
+        <v>0.52896005400000001</v>
+      </c>
+      <c r="J7">
+        <v>0.65347178500000003</v>
+      </c>
+      <c r="K7">
+        <v>0.66029479099999999</v>
+      </c>
+      <c r="L7">
+        <v>0.65861389999999997</v>
+      </c>
+      <c r="M7">
+        <v>0.62149551999999997</v>
+      </c>
+      <c r="N7">
+        <v>0.66856544799999995</v>
+      </c>
+      <c r="O7">
+        <v>0.71521672300000005</v>
+      </c>
+      <c r="P7">
+        <v>0.65448690200000004</v>
+      </c>
+      <c r="Q7">
+        <v>0.75633178899999998</v>
+      </c>
+      <c r="R7">
+        <v>0.75240850999999997</v>
+      </c>
+      <c r="S7">
+        <v>0.73469325699999999</v>
+      </c>
+      <c r="T7">
+        <v>0.70561594000000005</v>
+      </c>
+      <c r="U7">
+        <v>0.74563199300000005</v>
+      </c>
+      <c r="V7">
+        <v>0.71016764799999998</v>
+      </c>
+      <c r="W7">
+        <v>0.62740485499999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>0.350917388</v>
+      </c>
+      <c r="C8">
+        <v>0.35458019299999999</v>
+      </c>
+      <c r="D8">
+        <v>0.35325787400000003</v>
+      </c>
+      <c r="G8">
+        <v>0.28933954699999997</v>
+      </c>
+      <c r="H8">
+        <v>0.32548577400000001</v>
+      </c>
+      <c r="I8">
+        <v>0.38848894899999997</v>
+      </c>
+      <c r="J8">
+        <v>0.37233476399999998</v>
+      </c>
+      <c r="K8">
+        <v>0.41948666699999998</v>
+      </c>
+      <c r="L8">
+        <v>0.35441469599999997</v>
+      </c>
+      <c r="M8">
+        <v>0.30345430000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.49883470099999999</v>
+      </c>
+      <c r="P8">
+        <v>0.407554586</v>
+      </c>
+      <c r="Q8">
+        <v>0.64686286699999995</v>
+      </c>
+      <c r="R8">
+        <v>0.59661379299999995</v>
+      </c>
+      <c r="S8">
+        <v>0.62065883700000002</v>
+      </c>
+      <c r="T8">
+        <v>0.39600634400000001</v>
+      </c>
+      <c r="U8">
+        <v>0.384655731</v>
+      </c>
+      <c r="V8">
+        <v>0.55474320700000002</v>
+      </c>
+      <c r="W8">
+        <v>0.30598217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0.44198482300000003</v>
+      </c>
+      <c r="C9">
+        <v>0.424125064</v>
+      </c>
+      <c r="D9">
+        <v>0.45104285999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.28257325999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.54379897399999999</v>
+      </c>
+      <c r="G9">
+        <v>0.454546218</v>
+      </c>
+      <c r="H9">
+        <v>0.50741237100000003</v>
+      </c>
+      <c r="I9">
+        <v>0.415019003</v>
+      </c>
+      <c r="J9">
+        <v>0.44144241699999998</v>
+      </c>
+      <c r="K9">
+        <v>0.48350393200000003</v>
+      </c>
+      <c r="L9">
+        <v>0.47762123499999998</v>
+      </c>
+      <c r="M9">
+        <v>0.42063540300000002</v>
+      </c>
+      <c r="N9">
+        <v>0.40897244799999999</v>
+      </c>
+      <c r="O9">
+        <v>0.580259372</v>
+      </c>
+      <c r="P9">
+        <v>0.55983216199999997</v>
+      </c>
+      <c r="Q9">
+        <v>0.64803001800000004</v>
+      </c>
+      <c r="R9">
+        <v>0.67213953699999995</v>
+      </c>
+      <c r="S9">
+        <v>0.62787434799999997</v>
+      </c>
+      <c r="T9">
+        <v>0.467334158</v>
+      </c>
+      <c r="U9">
+        <v>0.53238484100000005</v>
+      </c>
+      <c r="V9">
+        <v>0.58250971799999995</v>
+      </c>
+      <c r="W9">
+        <v>0.52110982699999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>0.43877790900000002</v>
+      </c>
+      <c r="C10">
+        <v>0.41829071299999998</v>
+      </c>
+      <c r="D10">
+        <v>0.38605007600000002</v>
+      </c>
+      <c r="E10">
+        <v>0.41111634400000002</v>
+      </c>
+      <c r="F10">
+        <v>0.50881295000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.36699100499999998</v>
+      </c>
+      <c r="H10">
+        <v>0.42395486199999999</v>
+      </c>
+      <c r="I10">
+        <v>0.51188116299999997</v>
+      </c>
+      <c r="J10">
+        <v>0.52746765799999995</v>
+      </c>
+      <c r="K10">
+        <v>0.43424518899999998</v>
+      </c>
+      <c r="L10">
+        <v>0.47954896800000002</v>
+      </c>
+      <c r="M10">
+        <v>0.38357414899999998</v>
+      </c>
+      <c r="N10">
+        <v>0.41255869099999998</v>
+      </c>
+      <c r="O10">
+        <v>0.62809034900000005</v>
+      </c>
+      <c r="P10">
+        <v>0.57899064099999997</v>
+      </c>
+      <c r="Q10">
+        <v>0.73824736000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.72404900100000003</v>
+      </c>
+      <c r="S10">
+        <v>0.69873378100000005</v>
+      </c>
+      <c r="T10">
+        <v>0.54161891600000001</v>
+      </c>
+      <c r="U10">
+        <v>0.60694360000000003</v>
+      </c>
+      <c r="V10">
+        <v>0.60074876099999996</v>
+      </c>
+      <c r="W10">
+        <v>0.47287105899999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0.57057678499999998</v>
+      </c>
+      <c r="C11">
+        <v>0.51547782799999997</v>
+      </c>
+      <c r="D11">
+        <v>0.54466270699999997</v>
+      </c>
+      <c r="E11">
+        <v>0.50646403900000003</v>
+      </c>
+      <c r="F11">
+        <v>0.54781412600000001</v>
+      </c>
+      <c r="G11">
+        <v>0.55763605000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.68154280899999997</v>
+      </c>
+      <c r="I11">
+        <v>0.61347462900000005</v>
+      </c>
+      <c r="J11">
+        <v>0.63183235699999996</v>
+      </c>
+      <c r="K11">
+        <v>0.57278422299999998</v>
+      </c>
+      <c r="L11">
+        <v>0.67585862100000005</v>
+      </c>
+      <c r="M11">
+        <v>0.52532882999999997</v>
+      </c>
+      <c r="N11">
+        <v>0.478538083</v>
+      </c>
+      <c r="O11">
+        <v>0.74617718899999996</v>
+      </c>
+      <c r="P11">
+        <v>0.64434575900000002</v>
+      </c>
+      <c r="Q11">
+        <v>0.85950251899999996</v>
+      </c>
+      <c r="R11">
+        <v>0.76799506900000003</v>
+      </c>
+      <c r="S11">
+        <v>0.77629066400000002</v>
+      </c>
+      <c r="T11">
+        <v>0.76080002400000002</v>
+      </c>
+      <c r="U11">
+        <v>0.69816675500000003</v>
+      </c>
+      <c r="V11">
+        <v>0.72221950199999996</v>
+      </c>
+      <c r="W11">
+        <v>0.72760909600000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0.63843019700000003</v>
+      </c>
+      <c r="C12">
+        <v>0.57843620399999995</v>
+      </c>
+      <c r="D12">
+        <v>0.66827988000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.55204467400000001</v>
+      </c>
+      <c r="F12">
+        <v>0.65321896099999999</v>
+      </c>
+      <c r="G12">
+        <v>0.65204250900000005</v>
+      </c>
+      <c r="H12">
+        <v>0.71902412599999999</v>
+      </c>
+      <c r="I12">
+        <v>0.63672113500000005</v>
+      </c>
+      <c r="J12">
+        <v>0.61766664699999996</v>
+      </c>
+      <c r="K12">
+        <v>0.65362171599999996</v>
+      </c>
+      <c r="L12">
+        <v>0.74657900700000002</v>
+      </c>
+      <c r="M12">
+        <v>0.65306346900000001</v>
+      </c>
+      <c r="N12">
+        <v>0.53458279900000005</v>
+      </c>
+      <c r="O12">
+        <v>0.78324450700000003</v>
+      </c>
+      <c r="P12">
+        <v>0.72900149999999997</v>
+      </c>
+      <c r="Q12">
+        <v>0.86326414600000001</v>
+      </c>
+      <c r="R12">
+        <v>0.79877431799999998</v>
+      </c>
+      <c r="S12">
+        <v>0.82889175900000001</v>
+      </c>
+      <c r="T12">
+        <v>0.77745251699999995</v>
+      </c>
+      <c r="U12">
+        <v>0.71243494200000002</v>
+      </c>
+      <c r="V12">
+        <v>0.72903262700000004</v>
+      </c>
+      <c r="W12">
+        <v>0.82791107500000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>0.34009305400000001</v>
+      </c>
+      <c r="C13">
+        <v>0.294049913</v>
+      </c>
+      <c r="D13">
+        <v>0.31556099300000001</v>
+      </c>
+      <c r="E13">
+        <v>0.409218311</v>
+      </c>
+      <c r="F13">
+        <v>0.339712919</v>
+      </c>
+      <c r="G13">
+        <v>0.36052384900000001</v>
+      </c>
+      <c r="H13">
+        <v>0.341110091</v>
+      </c>
+      <c r="I13">
+        <v>0.317371556</v>
+      </c>
+      <c r="J13">
+        <v>0.30942024000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.33405456700000002</v>
+      </c>
+      <c r="L13">
+        <v>0.42139146100000002</v>
+      </c>
+      <c r="M13">
+        <v>0.28840876500000001</v>
+      </c>
+      <c r="N13">
+        <v>0.3403912</v>
+      </c>
+      <c r="O13">
+        <v>0.60999079499999997</v>
+      </c>
+      <c r="P13">
+        <v>0.53886526999999995</v>
+      </c>
+      <c r="Q13">
+        <v>0.73714133400000004</v>
+      </c>
+      <c r="R13">
+        <v>0.71926468899999996</v>
+      </c>
+      <c r="S13">
+        <v>0.697186164</v>
+      </c>
+      <c r="T13">
+        <v>0.68067152200000003</v>
+      </c>
+      <c r="U13">
+        <v>0.39623288299999998</v>
+      </c>
+      <c r="V13">
+        <v>0.440445531</v>
+      </c>
+      <c r="W13">
+        <v>0.62164955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1861,10 +3233,1932 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>0.54204000856691903</v>
+      </c>
+      <c r="C2">
+        <v>0.75732086676420396</v>
+      </c>
+      <c r="D2">
+        <v>0.80284599545050195</v>
+      </c>
+      <c r="E2">
+        <v>0.71268146575173097</v>
+      </c>
+      <c r="F2">
+        <v>0.80991771311372096</v>
+      </c>
+      <c r="G2">
+        <v>0.74106127773703001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>0.55843132289374697</v>
+      </c>
+      <c r="C3">
+        <v>0.72623853629056201</v>
+      </c>
+      <c r="D3">
+        <v>0.76879443837065597</v>
+      </c>
+      <c r="E3">
+        <v>0.65843593298581904</v>
+      </c>
+      <c r="F3">
+        <v>0.78774543310485801</v>
+      </c>
+      <c r="G3">
+        <v>0.74937873716519698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>0.52487012122023202</v>
+      </c>
+      <c r="C4">
+        <v>0.73502776127809399</v>
+      </c>
+      <c r="D4">
+        <v>0.78877038585429504</v>
+      </c>
+      <c r="E4">
+        <v>0.69051097506486203</v>
+      </c>
+      <c r="F4">
+        <v>0.80859228541434802</v>
+      </c>
+      <c r="G4">
+        <v>0.703443018587396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>1.9105931009727201E-2</v>
+      </c>
+      <c r="C2">
+        <v>4436</v>
+      </c>
+      <c r="D2">
+        <v>0.91747634953250001</v>
+      </c>
+      <c r="E2">
+        <v>0.35889308056116298</v>
+      </c>
+      <c r="F2">
+        <v>-2.1743178150567002E-2</v>
+      </c>
+      <c r="G2">
+        <v>5.9955040170021297E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>7.7005631961482607E-2</v>
+      </c>
+      <c r="C3">
+        <v>4436</v>
+      </c>
+      <c r="D3">
+        <v>3.7014263348546299</v>
+      </c>
+      <c r="E3">
+        <v>2.14390901424643E-4</v>
+      </c>
+      <c r="F3">
+        <v>3.6196003455220102E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.117815260467745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>0.12305197272634601</v>
+      </c>
+      <c r="C4">
+        <v>4436</v>
+      </c>
+      <c r="D4">
+        <v>5.8658402481774399</v>
+      </c>
+      <c r="E4">
+        <v>4.4686388697307797E-9</v>
+      </c>
+      <c r="F4">
+        <v>8.1902183786874097E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.16420176166581699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>0.117871255907152</v>
+      </c>
+      <c r="C5">
+        <v>4436</v>
+      </c>
+      <c r="D5">
+        <v>5.0493137597931197</v>
+      </c>
+      <c r="E5">
+        <v>4.43399970430906E-7</v>
+      </c>
+      <c r="F5">
+        <v>7.2079761675676507E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.16366275013862699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>0.150121589896102</v>
+      </c>
+      <c r="C6">
+        <v>4436</v>
+      </c>
+      <c r="D6">
+        <v>6.5348796270371903</v>
+      </c>
+      <c r="E6">
+        <v>6.3660721395012604E-11</v>
+      </c>
+      <c r="F6">
+        <v>0.105059137259776</v>
+      </c>
+      <c r="G6">
+        <v>0.19518404253242899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>0.103470628817053</v>
+      </c>
+      <c r="C7">
+        <v>4436</v>
+      </c>
+      <c r="D7">
+        <v>4.4696304865538998</v>
+      </c>
+      <c r="E7">
+        <v>7.8354845472366396E-6</v>
+      </c>
+      <c r="F7">
+        <v>5.80602912435619E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.14888096639054299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>7.4857010552693601E-2</v>
+      </c>
+      <c r="C8">
+        <v>4436</v>
+      </c>
+      <c r="D8">
+        <v>3.2550272873426902</v>
+      </c>
+      <c r="E8">
+        <v>1.13381471494382E-3</v>
+      </c>
+      <c r="F8">
+        <v>2.97455271450607E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.11996849396032699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <v>-4.9667872126843697E-2</v>
+      </c>
+      <c r="C9">
+        <v>4436</v>
+      </c>
+      <c r="D9">
+        <v>-1.8287509104326301</v>
+      </c>
+      <c r="E9">
+        <v>6.7436931943534395E-2</v>
+      </c>
+      <c r="F9">
+        <v>-0.102943706681855</v>
+      </c>
+      <c r="G9">
+        <v>3.6079624281676499E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>1.3789904506979001E-2</v>
+      </c>
+      <c r="C10">
+        <v>4436</v>
+      </c>
+      <c r="D10">
+        <v>0.61497476890976599</v>
+      </c>
+      <c r="E10">
+        <v>0.53857138326219101</v>
+      </c>
+      <c r="F10">
+        <v>-3.0195969244370399E-2</v>
+      </c>
+      <c r="G10">
+        <v>5.77757782583284E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>8.0553722175285003E-2</v>
+      </c>
+      <c r="C11">
+        <v>4436</v>
+      </c>
+      <c r="D11">
+        <v>2.9278874537025601</v>
+      </c>
+      <c r="E11">
+        <v>3.4127355446999501E-3</v>
+      </c>
+      <c r="F11">
+        <v>2.6585203625318299E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.13452224072525201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>8.8170729893259497E-2</v>
+      </c>
+      <c r="C12">
+        <v>4436</v>
+      </c>
+      <c r="D12">
+        <v>3.1623638646862302</v>
+      </c>
+      <c r="E12">
+        <v>1.56493887672242E-3</v>
+      </c>
+      <c r="F12">
+        <v>3.3478974880871801E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.14286248490564701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>-1.4187960858604499E-2</v>
+      </c>
+      <c r="C13">
+        <v>4436</v>
+      </c>
+      <c r="D13">
+        <v>-0.67962957134605495</v>
+      </c>
+      <c r="E13">
+        <v>0.49673904061415503</v>
+      </c>
+      <c r="F13">
+        <v>-5.51382504255849E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.6762328708375901E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14">
+        <v>-1.5796656604197001E-2</v>
+      </c>
+      <c r="C14">
+        <v>4436</v>
+      </c>
+      <c r="D14">
+        <v>-0.74181289653641902</v>
+      </c>
+      <c r="E14">
+        <v>0.45820070570510801</v>
+      </c>
+      <c r="F14">
+        <v>-5.75681556111452E-2</v>
+      </c>
+      <c r="G14">
+        <v>2.5974842402751299E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>0.10058931863331</v>
+      </c>
+      <c r="C15">
+        <v>4436</v>
+      </c>
+      <c r="D15">
+        <v>4.78572160371042</v>
+      </c>
+      <c r="E15">
+        <v>1.70374083372355E-6</v>
+      </c>
+      <c r="F15">
+        <v>5.9359284169152302E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.14181935309746899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>8.4891640194238699E-2</v>
+      </c>
+      <c r="C16">
+        <v>4436</v>
+      </c>
+      <c r="D16">
+        <v>4.09785298890215</v>
+      </c>
+      <c r="E16">
+        <v>4.1699997035755398E-5</v>
+      </c>
+      <c r="F16">
+        <v>4.42549981591508E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.12552828222932699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>8.7485783928120703E-2</v>
+      </c>
+      <c r="C17">
+        <v>4436</v>
+      </c>
+      <c r="D17">
+        <v>4.1731800250300903</v>
+      </c>
+      <c r="E17">
+        <v>3.0037740913864401E-5</v>
+      </c>
+      <c r="F17">
+        <v>4.63632724631848E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.12860829539305699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>6.8318865852446398E-2</v>
+      </c>
+      <c r="C18">
+        <v>4436</v>
+      </c>
+      <c r="D18">
+        <v>3.2614589107351399</v>
+      </c>
+      <c r="E18">
+        <v>1.1084049529115399E-3</v>
+      </c>
+      <c r="F18">
+        <v>2.72286900637221E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.109409041641171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>-1.54314451953285E-2</v>
+      </c>
+      <c r="C19">
+        <v>1456</v>
+      </c>
+      <c r="D19">
+        <v>-0.41743352837943798</v>
+      </c>
+      <c r="E19">
+        <v>0.67636133504596796</v>
+      </c>
+      <c r="F19">
+        <v>-8.7946559283767406E-2</v>
+      </c>
+      <c r="G19">
+        <v>5.7083668893110499E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>0.133982494054743</v>
+      </c>
+      <c r="C20">
+        <v>1456</v>
+      </c>
+      <c r="D20">
+        <v>3.7364251178708301</v>
+      </c>
+      <c r="E20">
+        <v>1.8665500012926401E-4</v>
+      </c>
+      <c r="F20">
+        <v>6.3642708899469602E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.204322279210015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21">
+        <v>-6.1755890677506198E-2</v>
+      </c>
+      <c r="C21">
+        <v>1456</v>
+      </c>
+      <c r="D21">
+        <v>-1.7057410708682601</v>
+      </c>
+      <c r="E21">
+        <v>8.8056299208231506E-2</v>
+      </c>
+      <c r="F21">
+        <v>-0.132774889527041</v>
+      </c>
+      <c r="G21">
+        <v>9.2631081720281599E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22">
+        <v>-4.2740785874138897E-2</v>
+      </c>
+      <c r="C22">
+        <v>1456</v>
+      </c>
+      <c r="D22">
+        <v>-1.0028501408295301</v>
+      </c>
+      <c r="E22">
+        <v>0.31593317217870198</v>
+      </c>
+      <c r="F22">
+        <v>-0.12634260471051401</v>
+      </c>
+      <c r="G22">
+        <v>4.0861032962236497E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>7.8770983393557897E-2</v>
+      </c>
+      <c r="C23">
+        <v>1456</v>
+      </c>
+      <c r="D23">
+        <v>1.9066729147999499</v>
+      </c>
+      <c r="E23">
+        <v>5.65629564816683E-2</v>
+      </c>
+      <c r="F23">
+        <v>-2.2689980043260902E-3</v>
+      </c>
+      <c r="G23">
+        <v>0.159810964791442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <v>-0.11330698095121</v>
+      </c>
+      <c r="C24">
+        <v>1456</v>
+      </c>
+      <c r="D24">
+        <v>-2.7677906579988498</v>
+      </c>
+      <c r="E24">
+        <v>5.6437694846357403E-3</v>
+      </c>
+      <c r="F24">
+        <v>-0.193610151296259</v>
+      </c>
+      <c r="G24">
+        <v>-3.30038106061607E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>0.155914093057551</v>
+      </c>
+      <c r="C25">
+        <v>1456</v>
+      </c>
+      <c r="D25">
+        <v>3.7481173114434898</v>
+      </c>
+      <c r="E25">
+        <v>1.7816692305376201E-4</v>
+      </c>
+      <c r="F25">
+        <v>7.4315727444944302E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.23751245867015899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26">
+        <v>0.13232464326888899</v>
+      </c>
+      <c r="C26">
+        <v>1456</v>
+      </c>
+      <c r="D26">
+        <v>3.4955941980576699</v>
+      </c>
+      <c r="E26">
+        <v>4.7300746209031502E-4</v>
+      </c>
+      <c r="F26">
+        <v>5.80690820841257E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.20658020445365299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27">
+        <v>0.114254756637708</v>
+      </c>
+      <c r="C27">
+        <v>1456</v>
+      </c>
+      <c r="D27">
+        <v>2.49162094683938</v>
+      </c>
+      <c r="E27">
+        <v>1.27161664692606E-2</v>
+      </c>
+      <c r="F27">
+        <v>2.4304671467509399E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.20420484180790599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28">
+        <v>0.117316394958191</v>
+      </c>
+      <c r="C28">
+        <v>1456</v>
+      </c>
+      <c r="D28">
+        <v>2.5236656088798002</v>
+      </c>
+      <c r="E28">
+        <v>1.1613834286327399E-2</v>
+      </c>
+      <c r="F28">
+        <v>2.61287158773209E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.20850407403906099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29">
+        <v>-1.22150643584613E-2</v>
+      </c>
+      <c r="C29">
+        <v>1456</v>
+      </c>
+      <c r="D29">
+        <v>-0.249861595700614</v>
+      </c>
+      <c r="E29">
+        <v>0.80269438354516298</v>
+      </c>
+      <c r="F29">
+        <v>-0.108112172953509</v>
+      </c>
+      <c r="G29">
+        <v>8.3682044236586095E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30">
+        <v>-4.2171266686380403E-2</v>
+      </c>
+      <c r="C30">
+        <v>1456</v>
+      </c>
+      <c r="D30">
+        <v>-1.3302566429621401</v>
+      </c>
+      <c r="E30">
+        <v>0.18343372715418499</v>
+      </c>
+      <c r="F30">
+        <v>-0.10435695878901401</v>
+      </c>
+      <c r="G30">
+        <v>2.0014425416253E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31">
+        <v>-4.0932299776490197E-2</v>
+      </c>
+      <c r="C31">
+        <v>1456</v>
+      </c>
+      <c r="D31">
+        <v>-1.3222933393827201</v>
+      </c>
+      <c r="E31">
+        <v>0.18607048984977501</v>
+      </c>
+      <c r="F31">
+        <v>-0.10165451382358601</v>
+      </c>
+      <c r="G31">
+        <v>1.9789914270605599E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32">
+        <v>7.7552228197585393E-2</v>
+      </c>
+      <c r="C32">
+        <v>1456</v>
+      </c>
+      <c r="D32">
+        <v>2.3351948792187001</v>
+      </c>
+      <c r="E32">
+        <v>1.9533242532918701E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.2407329473836701E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.14269712692133399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33">
+        <v>0.115491670749437</v>
+      </c>
+      <c r="C33">
+        <v>1456</v>
+      </c>
+      <c r="D33">
+        <v>3.5635598888869899</v>
+      </c>
+      <c r="E33">
+        <v>3.6585917528985702E-4</v>
+      </c>
+      <c r="F33">
+        <v>5.1918208392767097E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.179065133106106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34">
+        <v>3.6831766104463003E-2</v>
+      </c>
+      <c r="C34">
+        <v>1958</v>
+      </c>
+      <c r="D34">
+        <v>1.1775342206896</v>
+      </c>
+      <c r="E34">
+        <v>0.238982347169406</v>
+      </c>
+      <c r="F34">
+        <v>-2.45244077640158E-2</v>
+      </c>
+      <c r="G34">
+        <v>9.8187939972941798E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35">
+        <v>7.0275496517176794E-2</v>
+      </c>
+      <c r="C35">
+        <v>1958</v>
+      </c>
+      <c r="D35">
+        <v>2.2200375958926202</v>
+      </c>
+      <c r="E35">
+        <v>2.64162156544352E-2</v>
+      </c>
+      <c r="F35">
+        <v>8.1810363072128307E-3</v>
+      </c>
+      <c r="G35">
+        <v>0.132369956727141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36">
+        <v>-8.4191767973834E-2</v>
+      </c>
+      <c r="C36">
+        <v>1958</v>
+      </c>
+      <c r="D36">
+        <v>-2.6865844705777402</v>
+      </c>
+      <c r="E36">
+        <v>7.2186693136896797E-3</v>
+      </c>
+      <c r="F36">
+        <v>-0.14566391643821</v>
+      </c>
+      <c r="G36">
+        <v>-2.2719619509458298E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
+        <v>3.27398876098507E-2</v>
+      </c>
+      <c r="C37">
+        <v>1958</v>
+      </c>
+      <c r="D37">
+        <v>0.93279592438301595</v>
+      </c>
+      <c r="E37">
+        <v>0.35092534593580899</v>
+      </c>
+      <c r="F37">
+        <v>-3.61094564375605E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.101589231657262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38">
+        <v>0.15211234189509701</v>
+      </c>
+      <c r="C38">
+        <v>1958</v>
+      </c>
+      <c r="D38">
+        <v>4.3645231330240897</v>
+      </c>
+      <c r="E38">
+        <v>1.2740036793438899E-5</v>
+      </c>
+      <c r="F38">
+        <v>8.3746854302976501E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.220477829487218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39">
+        <v>9.2347983064752198E-2</v>
+      </c>
+      <c r="C39">
+        <v>1958</v>
+      </c>
+      <c r="D39">
+        <v>2.6257391397152099</v>
+      </c>
+      <c r="E39">
+        <v>8.6461050678886195E-3</v>
+      </c>
+      <c r="F39">
+        <v>2.3358149165590002E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.161337816963914</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40">
+        <v>6.9908801318086494E-2</v>
+      </c>
+      <c r="C40">
+        <v>1958</v>
+      </c>
+      <c r="D40">
+        <v>1.9813909474456699</v>
+      </c>
+      <c r="E40">
+        <v>4.7547448165393101E-2</v>
+      </c>
+      <c r="F40">
+        <v>6.9846753292182595E-4</v>
+      </c>
+      <c r="G40">
+        <v>0.139119135103251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41">
+        <v>9.3769830442596694E-2</v>
+      </c>
+      <c r="C41">
+        <v>1958</v>
+      </c>
+      <c r="D41">
+        <v>2.8013237513967901</v>
+      </c>
+      <c r="E41">
+        <v>5.0893432759238797E-3</v>
+      </c>
+      <c r="F41">
+        <v>2.81085889698078E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.159431071915386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42">
+        <v>9.4434284768917603E-2</v>
+      </c>
+      <c r="C42">
+        <v>1958</v>
+      </c>
+      <c r="D42">
+        <v>2.2979394603322398</v>
+      </c>
+      <c r="E42">
+        <v>2.1565234992538498E-2</v>
+      </c>
+      <c r="F42">
+        <v>1.38221587682154E-2</v>
+      </c>
+      <c r="G42">
+        <v>0.17504641076961999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43">
+        <v>0.10350899325809</v>
+      </c>
+      <c r="C43">
+        <v>1958</v>
+      </c>
+      <c r="D43">
+        <v>2.5159682484662</v>
+      </c>
+      <c r="E43">
+        <v>1.1870587642964701E-2</v>
+      </c>
+      <c r="F43">
+        <v>2.2807384711063201E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.184210601805116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44">
+        <v>4.1997164893910699E-2</v>
+      </c>
+      <c r="C44">
+        <v>1958</v>
+      </c>
+      <c r="D44">
+        <v>0.99438942708605105</v>
+      </c>
+      <c r="E44">
+        <v>0.320033313491148</v>
+      </c>
+      <c r="F44">
+        <v>-4.0849062783719498E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.12484339257154101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45">
+        <v>5.39587630311767E-2</v>
+      </c>
+      <c r="C45">
+        <v>1958</v>
+      </c>
+      <c r="D45">
+        <v>2.0017537658588198</v>
+      </c>
+      <c r="E45">
+        <v>4.5311220697160301E-2</v>
+      </c>
+      <c r="F45">
+        <v>1.08251956824775E-3</v>
+      </c>
+      <c r="G45">
+        <v>0.106835006494106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46">
+        <v>-2.6063979647727401E-2</v>
+      </c>
+      <c r="C46">
+        <v>1958</v>
+      </c>
+      <c r="D46">
+        <v>-0.93911242219614899</v>
+      </c>
+      <c r="E46">
+        <v>0.34767302705061898</v>
+      </c>
+      <c r="F46">
+        <v>-8.0505770797598797E-2</v>
+      </c>
+      <c r="G46">
+        <v>2.8377811502143999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47">
+        <v>7.9279379369355696E-2</v>
+      </c>
+      <c r="C47">
+        <v>1958</v>
+      </c>
+      <c r="D47">
+        <v>2.7419889729459102</v>
+      </c>
+      <c r="E47">
+        <v>6.10683916889335E-3</v>
+      </c>
+      <c r="F47">
+        <v>2.25636135896287E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.13599514514908301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48">
+        <v>0.106623418430839</v>
+      </c>
+      <c r="C48">
+        <v>1958</v>
+      </c>
+      <c r="D48">
+        <v>3.7649927063111002</v>
+      </c>
+      <c r="E48">
+        <v>1.6655394386005899E-4</v>
+      </c>
+      <c r="F48">
+        <v>5.1071670872496699E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.162175165989181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49">
+        <v>0.21913001840332699</v>
+      </c>
+      <c r="C49">
+        <v>1086</v>
+      </c>
+      <c r="D49">
+        <v>5.3737611247742301</v>
+      </c>
+      <c r="E49">
+        <v>7.7110999366812996E-8</v>
+      </c>
+      <c r="F49">
+        <v>0.13914055551818499</v>
+      </c>
+      <c r="G49">
+        <v>0.29911948128846899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50">
+        <v>0.15625579044433199</v>
+      </c>
+      <c r="C50">
+        <v>1086</v>
+      </c>
+      <c r="D50">
+        <v>3.7996076900992999</v>
+      </c>
+      <c r="E50">
+        <v>1.4492532601240101E-4</v>
+      </c>
+      <c r="F50">
+        <v>7.55867994604182E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.23692478142824699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51">
+        <v>3.4207602611191399E-3</v>
+      </c>
+      <c r="C51">
+        <v>1086</v>
+      </c>
+      <c r="D51">
+        <v>8.4626298690440305E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.93255849072997898</v>
+      </c>
+      <c r="F51">
+        <v>-7.5870725268017497E-2</v>
+      </c>
+      <c r="G51">
+        <v>8.2712245790255795E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52">
+        <v>0.26892023437634699</v>
+      </c>
+      <c r="C52">
+        <v>1086</v>
+      </c>
+      <c r="D52">
+        <v>6.1192129365708396</v>
+      </c>
+      <c r="E52">
+        <v>9.4038672641974394E-10</v>
+      </c>
+      <c r="F52">
+        <v>0.18271429719305499</v>
+      </c>
+      <c r="G52">
+        <v>0.35512617155963899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53">
+        <v>0.104049246359908</v>
+      </c>
+      <c r="C53">
+        <v>1086</v>
+      </c>
+      <c r="D53">
+        <v>2.2453678252559399</v>
+      </c>
+      <c r="E53">
+        <v>2.4744529152861499E-2</v>
+      </c>
+      <c r="F53">
+        <v>1.31499112982702E-2</v>
+      </c>
+      <c r="G53">
+        <v>0.194948581421546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54">
+        <v>0.229014309023857</v>
+      </c>
+      <c r="C54">
+        <v>1086</v>
+      </c>
+      <c r="D54">
+        <v>4.9052813365582297</v>
+      </c>
+      <c r="E54">
+        <v>9.3293520946670597E-7</v>
+      </c>
+      <c r="F54">
+        <v>0.137432765262365</v>
+      </c>
+      <c r="G54">
+        <v>0.32059585278534802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55">
+        <v>0.26503449412424002</v>
+      </c>
+      <c r="C55">
+        <v>1086</v>
+      </c>
+      <c r="D55">
+        <v>6.0033957984238002</v>
+      </c>
+      <c r="E55">
+        <v>1.9323279631118201E-9</v>
+      </c>
+      <c r="F55">
+        <v>0.17843513331428801</v>
+      </c>
+      <c r="G55">
+        <v>0.35163385493419202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56">
+        <v>3.6645858278717899E-2</v>
+      </c>
+      <c r="C56">
+        <v>1086</v>
+      </c>
+      <c r="D56">
+        <v>0.822897836681732</v>
+      </c>
+      <c r="E56">
+        <v>0.41056609303151398</v>
+      </c>
+      <c r="F56">
+        <v>-5.0709236588285703E-2</v>
+      </c>
+      <c r="G56">
+        <v>0.124000953145721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57">
+        <v>5.00027051271284E-2</v>
+      </c>
+      <c r="C57">
+        <v>1086</v>
+      </c>
+      <c r="D57">
+        <v>0.90592218300514205</v>
+      </c>
+      <c r="E57">
+        <v>0.36497704203824199</v>
+      </c>
+      <c r="F57">
+        <v>-5.8268225202054602E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.15827363545631101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58">
+        <v>-1.17629997649525E-2</v>
+      </c>
+      <c r="C58">
+        <v>1086</v>
+      </c>
+      <c r="D58">
+        <v>-0.21601351638914701</v>
+      </c>
+      <c r="E58">
+        <v>0.82897721173153305</v>
+      </c>
+      <c r="F58">
+        <v>-0.118581487265361</v>
+      </c>
+      <c r="G58">
+        <v>9.5055487735455704E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59">
+        <v>2.3388854271322802E-2</v>
+      </c>
+      <c r="C59">
+        <v>1086</v>
+      </c>
+      <c r="D59">
+        <v>0.42639299058869301</v>
+      </c>
+      <c r="E59">
+        <v>0.66982150811010799</v>
+      </c>
+      <c r="F59">
+        <v>-8.4210125569763206E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.130987834112409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60">
+        <v>7.3492039993675803E-2</v>
+      </c>
+      <c r="C60">
+        <v>1086</v>
+      </c>
+      <c r="D60">
+        <v>2.0591439390355601</v>
+      </c>
+      <c r="E60">
+        <v>3.9480451712212698E-2</v>
+      </c>
+      <c r="F60">
+        <v>3.4815915636024898E-3</v>
+      </c>
+      <c r="G60">
+        <v>0.14350248842374899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61">
+        <v>9.8592411447624793E-3</v>
+      </c>
+      <c r="C61">
+        <v>1086</v>
+      </c>
+      <c r="D61">
+        <v>0.27565312130971997</v>
+      </c>
+      <c r="E61">
+        <v>0.78281450477904202</v>
+      </c>
+      <c r="F61">
+        <v>-6.0300800337082398E-2</v>
+      </c>
+      <c r="G61">
+        <v>8.0019282626607402E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62">
+        <v>8.0157746894954404E-2</v>
+      </c>
+      <c r="C62">
+        <v>1086</v>
+      </c>
+      <c r="D62">
+        <v>2.0970910824188902</v>
+      </c>
+      <c r="E62">
+        <v>3.5985513247230899E-2</v>
+      </c>
+      <c r="F62">
+        <v>5.1791221254060401E-3</v>
+      </c>
+      <c r="G62">
+        <v>0.155136371664503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63">
+        <v>0.141314031287848</v>
+      </c>
+      <c r="C63">
+        <v>1086</v>
+      </c>
+      <c r="D63">
+        <v>3.7725735092245198</v>
+      </c>
+      <c r="E63">
+        <v>1.61572341465382E-4</v>
+      </c>
+      <c r="F63">
+        <v>6.7836114056103305E-2</v>
+      </c>
+      <c r="G63">
+        <v>0.21479194851959299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64">
+        <v>5.3554638028490498E-3</v>
+      </c>
+      <c r="C64">
+        <v>1498</v>
+      </c>
+      <c r="D64">
+        <v>0.14691013869480199</v>
+      </c>
+      <c r="E64">
+        <v>0.88320294923550102</v>
+      </c>
+      <c r="F64">
+        <v>-6.6152528073707806E-2</v>
+      </c>
+      <c r="G64">
+        <v>7.6863455679405904E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65">
+        <v>3.2579529980924699E-2</v>
+      </c>
+      <c r="C65">
+        <v>1498</v>
+      </c>
+      <c r="D65">
+        <v>0.89430706443474295</v>
+      </c>
+      <c r="E65">
+        <v>0.37115762122795598</v>
+      </c>
+      <c r="F65">
+        <v>-3.8881194643289103E-2</v>
+      </c>
+      <c r="G65">
+        <v>0.10404025460513899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66">
+        <v>-2.50244499525757E-2</v>
+      </c>
+      <c r="C66">
+        <v>1498</v>
+      </c>
+      <c r="D66">
+        <v>-0.701342467285341</v>
+      </c>
+      <c r="E66">
+        <v>0.48308931711875203</v>
+      </c>
+      <c r="F66">
+        <v>-9.5015686450801703E-2</v>
+      </c>
+      <c r="G66">
+        <v>4.49667865456502E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67">
+        <v>0.17559257350905499</v>
+      </c>
+      <c r="C67">
+        <v>1498</v>
+      </c>
+      <c r="D67">
+        <v>4.2917443669224502</v>
+      </c>
+      <c r="E67">
+        <v>1.77274966942396E-5</v>
+      </c>
+      <c r="F67">
+        <v>9.5335825028466506E-2</v>
+      </c>
+      <c r="G67">
+        <v>0.255849321989644</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68">
+        <v>0.12410600010119301</v>
+      </c>
+      <c r="C68">
+        <v>1498</v>
+      </c>
+      <c r="D68">
+        <v>3.0502918405747801</v>
+      </c>
+      <c r="E68">
+        <v>2.2861909651291901E-3</v>
+      </c>
+      <c r="F68">
+        <v>4.42953867825438E-2</v>
+      </c>
+      <c r="G68">
+        <v>0.20391661341984199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69">
+        <v>-1.0381622762884899E-3</v>
+      </c>
+      <c r="C69">
+        <v>1498</v>
+      </c>
+      <c r="D69">
+        <v>-2.6256464403684999E-2</v>
+      </c>
+      <c r="E69">
+        <v>0.97905277930105095</v>
+      </c>
+      <c r="F69">
+        <v>-7.8598244572005496E-2</v>
+      </c>
+      <c r="G69">
+        <v>7.6521920019428494E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70">
+        <v>9.2661686640326299E-2</v>
+      </c>
+      <c r="C70">
+        <v>1498</v>
+      </c>
+      <c r="D70">
+        <v>2.2049402052091001</v>
+      </c>
+      <c r="E70">
+        <v>2.74582907380021E-2</v>
+      </c>
+      <c r="F70">
+        <v>1.0226495912965801E-2</v>
+      </c>
+      <c r="G70">
+        <v>0.175096877367687</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71">
+        <v>8.6502011213251004E-2</v>
+      </c>
+      <c r="C71">
+        <v>1498</v>
+      </c>
+      <c r="D71">
+        <v>2.3143413316658998</v>
+      </c>
+      <c r="E71">
+        <v>2.0649006297345701E-2</v>
+      </c>
+      <c r="F71">
+        <v>1.31844422642774E-2</v>
+      </c>
+      <c r="G71">
+        <v>0.159819580162225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72">
+        <v>0.12776085418227401</v>
+      </c>
+      <c r="C72">
+        <v>1498</v>
+      </c>
+      <c r="D72">
+        <v>2.8649950518619298</v>
+      </c>
+      <c r="E72">
+        <v>4.1701575836606301E-3</v>
+      </c>
+      <c r="F72">
+        <v>4.028600686936E-2</v>
+      </c>
+      <c r="G72">
+        <v>0.215235701495189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73">
+        <v>7.3483972856347501E-2</v>
+      </c>
+      <c r="C73">
+        <v>1498</v>
+      </c>
+      <c r="D73">
+        <v>1.5550972983152</v>
+      </c>
+      <c r="E73">
+        <v>0.119922898311527</v>
+      </c>
+      <c r="F73">
+        <v>-1.9208469125836701E-2</v>
+      </c>
+      <c r="G73">
+        <v>0.16617641483853199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74">
+        <v>-6.6286163145801894E-2</v>
+      </c>
+      <c r="C74">
+        <v>1498</v>
+      </c>
+      <c r="D74">
+        <v>-1.4156600249387601</v>
+      </c>
+      <c r="E74">
+        <v>0.156875067760673</v>
+      </c>
+      <c r="F74">
+        <v>-0.15813489728944799</v>
+      </c>
+      <c r="G74">
+        <v>2.5562570997844002E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75">
+        <v>5.93269048482103E-2</v>
+      </c>
+      <c r="C75">
+        <v>1498</v>
+      </c>
+      <c r="D75">
+        <v>1.90881578980978</v>
+      </c>
+      <c r="E75">
+        <v>5.62858592214701E-2</v>
+      </c>
+      <c r="F75">
+        <v>-1.64039132908161E-3</v>
+      </c>
+      <c r="G75">
+        <v>0.12029420102550201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76">
+        <v>-3.54131994301531E-2</v>
+      </c>
+      <c r="C76">
+        <v>1498</v>
+      </c>
+      <c r="D76">
+        <v>-1.1166572098388901</v>
+      </c>
+      <c r="E76">
+        <v>0.26414092024450703</v>
+      </c>
+      <c r="F76">
+        <v>-9.7622390403550405E-2</v>
+      </c>
+      <c r="G76">
+        <v>2.6795991543244101E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77">
+        <v>3.1086953655464999E-2</v>
+      </c>
+      <c r="C77">
+        <v>1498</v>
+      </c>
+      <c r="D77">
+        <v>0.92442504901088096</v>
+      </c>
+      <c r="E77">
+        <v>0.35526505795498597</v>
+      </c>
+      <c r="F77">
+        <v>-3.48783739072904E-2</v>
+      </c>
+      <c r="G77">
+        <v>9.7052281218220404E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78">
+        <v>9.6099031822703795E-2</v>
+      </c>
+      <c r="C78">
+        <v>1498</v>
+      </c>
+      <c r="D78">
+        <v>2.96841452330847</v>
+      </c>
+      <c r="E78">
+        <v>2.9934034432341E-3</v>
+      </c>
+      <c r="F78">
+        <v>3.2594644982852403E-2</v>
+      </c>
+      <c r="G78">
+        <v>0.15960341866255501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,7 +5214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2047,7 +5341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2056,6 +5350,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -2098,306 +5395,6 @@
       </c>
       <c r="G2">
         <v>33.7379192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>0.61260734900000002</v>
-      </c>
-      <c r="C2">
-        <v>0.72130375400000002</v>
-      </c>
-      <c r="D2">
-        <v>0.75984863999999996</v>
-      </c>
-      <c r="E2">
-        <v>0.70227868699999996</v>
-      </c>
-      <c r="F2">
-        <v>0.73935066199999999</v>
-      </c>
-      <c r="G2">
-        <v>0.65709914300000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <v>0.35502795700000001</v>
-      </c>
-      <c r="C3">
-        <v>0.48731534999999998</v>
-      </c>
-      <c r="D3">
-        <v>0.457043755</v>
-      </c>
-      <c r="E3">
-        <v>0.531411568</v>
-      </c>
-      <c r="F3">
-        <v>0.55511979099999997</v>
-      </c>
-      <c r="G3">
-        <v>0.39180111299999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>0.446393661</v>
-      </c>
-      <c r="C4">
-        <v>0.51246709000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.52305404600000005</v>
-      </c>
-      <c r="E4">
-        <v>0.51080461300000002</v>
-      </c>
-      <c r="F4">
-        <v>0.4887994</v>
-      </c>
-      <c r="G4">
-        <v>0.48519428199999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>0.363253942</v>
-      </c>
-      <c r="C5">
-        <v>0.37533786000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.32719437200000001</v>
-      </c>
-      <c r="E5">
-        <v>0.41323142699999998</v>
-      </c>
-      <c r="F5">
-        <v>0.35174969699999997</v>
-      </c>
-      <c r="G5">
-        <v>0.408912844</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>0.68433711699999999</v>
-      </c>
-      <c r="C6">
-        <v>0.77434045699999998</v>
-      </c>
-      <c r="D6">
-        <v>0.79124887200000005</v>
-      </c>
-      <c r="E6">
-        <v>0.79840673699999998</v>
-      </c>
-      <c r="F6">
-        <v>0.72291285999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.75977855500000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2">
-        <v>0.29024311000000003</v>
-      </c>
-      <c r="C2">
-        <v>0.299998088</v>
-      </c>
-      <c r="D2">
-        <v>0.31030337200000002</v>
-      </c>
-      <c r="E2">
-        <v>0.34935455100000001</v>
-      </c>
-      <c r="F2">
-        <v>0.31352722900000002</v>
-      </c>
-      <c r="G2">
-        <v>0.23501894100000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3">
-        <v>0.401710495</v>
-      </c>
-      <c r="C3">
-        <v>0.53390605899999999</v>
-      </c>
-      <c r="D3">
-        <v>0.48485575199999997</v>
-      </c>
-      <c r="E3">
-        <v>0.57209744699999998</v>
-      </c>
-      <c r="F3">
-        <v>0.60203769500000004</v>
-      </c>
-      <c r="G3">
-        <v>0.48862726299999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4">
-        <v>0.15657132200000001</v>
-      </c>
-      <c r="C4">
-        <v>0.15736963800000001</v>
-      </c>
-      <c r="D4">
-        <v>0.151307635</v>
-      </c>
-      <c r="E4">
-        <v>0.14229081800000001</v>
-      </c>
-      <c r="F4">
-        <v>0.23097300800000001</v>
-      </c>
-      <c r="G4">
-        <v>0.13397402999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5">
-        <v>0.44955113600000002</v>
-      </c>
-      <c r="C5">
-        <v>0.299947036</v>
-      </c>
-      <c r="D5">
-        <v>0.28129925099999997</v>
-      </c>
-      <c r="E5">
-        <v>0.30291235100000002</v>
-      </c>
-      <c r="F5">
-        <v>0.20443979000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.36719475600000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6">
-        <v>0.62972726599999995</v>
-      </c>
-      <c r="C6">
-        <v>0.62933232699999997</v>
-      </c>
-      <c r="D6">
-        <v>0.51228071100000006</v>
-      </c>
-      <c r="E6">
-        <v>0.61776669900000003</v>
-      </c>
-      <c r="F6">
-        <v>0.70639112800000003</v>
-      </c>
-      <c r="G6">
-        <v>0.69394445299999996</v>
       </c>
     </row>
   </sheetData>
@@ -2407,908 +5404,265 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W13"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>0.18028384413675699</v>
+      </c>
+      <c r="C2">
+        <v>0.24597556732977599</v>
+      </c>
+      <c r="D2">
+        <v>0.104534936604642</v>
+      </c>
+      <c r="E2">
+        <v>0.107886976232851</v>
+      </c>
+      <c r="F2">
+        <v>7.6424398031435997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>0.22152915018487701</v>
+      </c>
+      <c r="C3">
+        <v>0.193179434192262</v>
+      </c>
+      <c r="D3">
+        <v>0.20440598944630101</v>
+      </c>
+      <c r="E3">
+        <v>0.21530542180725301</v>
+      </c>
+      <c r="F3">
+        <v>0.29598721701397901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>0.43036333092387002</v>
+      </c>
+      <c r="C4">
+        <v>0.388678550331017</v>
+      </c>
+      <c r="D4">
+        <v>0.49948359489264099</v>
+      </c>
+      <c r="E4">
+        <v>0.48775002121538702</v>
+      </c>
+      <c r="F4">
+        <v>0.51125789976685998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>0.167823674754496</v>
+      </c>
+      <c r="C5">
+        <v>0.17216644814694501</v>
+      </c>
+      <c r="D5">
+        <v>0.191575479056415</v>
+      </c>
+      <c r="E5">
+        <v>0.18905758074450901</v>
+      </c>
+      <c r="F5">
+        <v>0.116330485187725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B2">
-        <v>0.853161104</v>
+        <v>0.61260734900000002</v>
       </c>
       <c r="C2">
-        <v>0.78015522699999995</v>
+        <v>0.72130375400000002</v>
       </c>
       <c r="D2">
-        <v>0.87007912899999995</v>
+        <v>0.75984863999999996</v>
       </c>
       <c r="E2">
-        <v>0.80524842900000004</v>
+        <v>0.70227868699999996</v>
       </c>
       <c r="F2">
-        <v>0.85466962700000004</v>
+        <v>0.73935066199999999</v>
       </c>
       <c r="G2">
-        <v>0.87953823200000003</v>
-      </c>
-      <c r="H2">
-        <v>0.91940944400000002</v>
-      </c>
-      <c r="I2">
-        <v>0.94263246899999997</v>
-      </c>
-      <c r="J2">
-        <v>0.88291280500000002</v>
-      </c>
-      <c r="K2">
-        <v>0.85795714899999997</v>
-      </c>
-      <c r="L2">
-        <v>0.88091636600000001</v>
-      </c>
-      <c r="M2">
-        <v>0.88455220499999998</v>
-      </c>
-      <c r="N2">
-        <v>0.69801639500000001</v>
-      </c>
-      <c r="O2">
-        <v>0.84543004899999996</v>
-      </c>
-      <c r="P2">
-        <v>0.87973226500000001</v>
-      </c>
-      <c r="Q2">
-        <v>0.86872614299999995</v>
-      </c>
-      <c r="R2">
-        <v>0.78234193600000002</v>
-      </c>
-      <c r="S2">
-        <v>0.85758700099999996</v>
-      </c>
-      <c r="T2">
-        <v>0.87993380600000004</v>
-      </c>
-      <c r="U2">
-        <v>0.90443271800000002</v>
-      </c>
-      <c r="V2">
-        <v>0.81931901500000004</v>
-      </c>
-      <c r="W2">
-        <v>0.76465992500000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
+        <v>0.65709914300000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B3">
-        <v>0.46357797899999997</v>
+        <v>0.35502795700000001</v>
       </c>
       <c r="C3">
-        <v>0.66611469199999995</v>
+        <v>0.48731534999999998</v>
       </c>
       <c r="D3">
-        <v>0.57878127899999998</v>
+        <v>0.457043755</v>
       </c>
       <c r="E3">
-        <v>0.47512339999999997</v>
+        <v>0.531411568</v>
       </c>
       <c r="F3">
-        <v>0.36557424100000002</v>
+        <v>0.55511979099999997</v>
       </c>
       <c r="G3">
-        <v>0.48026952000000001</v>
-      </c>
-      <c r="H3">
-        <v>0.29990773999999998</v>
-      </c>
-      <c r="J3">
-        <v>0.39676019299999998</v>
-      </c>
-      <c r="L3">
-        <v>0.39560696200000001</v>
-      </c>
-      <c r="M3">
-        <v>0.466793862</v>
-      </c>
-      <c r="N3">
-        <v>0.51847378899999996</v>
-      </c>
-      <c r="O3">
-        <v>0.47874950500000002</v>
-      </c>
-      <c r="P3">
-        <v>0.47819177299999999</v>
-      </c>
-      <c r="Q3">
-        <v>0.60874776200000003</v>
-      </c>
-      <c r="R3">
-        <v>0.67270099299999997</v>
-      </c>
-      <c r="S3">
-        <v>0.49628271099999999</v>
-      </c>
-      <c r="T3">
-        <v>0.40561094399999997</v>
-      </c>
-      <c r="U3">
-        <v>0.42464001899999998</v>
-      </c>
-      <c r="V3">
-        <v>0.41490992100000001</v>
-      </c>
-      <c r="W3">
-        <v>0.23794570200000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
+        <v>0.39180111299999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>0.43869454499999999</v>
+        <v>0.446393661</v>
       </c>
       <c r="C4">
-        <v>0.54295799600000005</v>
+        <v>0.51246709000000001</v>
       </c>
       <c r="D4">
-        <v>0.50213036700000002</v>
+        <v>0.52305404600000005</v>
       </c>
       <c r="E4">
-        <v>0.44786762000000002</v>
+        <v>0.51080461300000002</v>
       </c>
       <c r="F4">
-        <v>0.27021313299999999</v>
+        <v>0.4887994</v>
       </c>
       <c r="G4">
-        <v>0.447877513</v>
-      </c>
-      <c r="H4">
-        <v>0.28453363100000001</v>
-      </c>
-      <c r="I4">
-        <v>0.50203435799999996</v>
-      </c>
-      <c r="J4">
-        <v>0.376472796</v>
-      </c>
-      <c r="K4">
-        <v>0.65151333899999997</v>
-      </c>
-      <c r="L4">
-        <v>0.33760651800000002</v>
-      </c>
-      <c r="M4">
-        <v>0.52550202300000004</v>
-      </c>
-      <c r="N4">
-        <v>0.40523719699999999</v>
-      </c>
-      <c r="O4">
-        <v>0.42298634400000001</v>
-      </c>
-      <c r="P4">
-        <v>0.36380098100000002</v>
-      </c>
-      <c r="Q4">
-        <v>0.31712601800000001</v>
-      </c>
-      <c r="R4">
-        <v>0.58921354299999995</v>
-      </c>
-      <c r="S4">
-        <v>0.35056500499999999</v>
-      </c>
-      <c r="T4">
-        <v>0.26493150900000001</v>
-      </c>
-      <c r="U4">
-        <v>0.533224319</v>
-      </c>
-      <c r="V4">
-        <v>0.58003423700000001</v>
-      </c>
-      <c r="W4">
-        <v>0.34552078600000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
+        <v>0.48519428199999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>0.360598961</v>
+        <v>0.363253942</v>
       </c>
       <c r="C5">
-        <v>0.47785629899999998</v>
+        <v>0.37533786000000002</v>
       </c>
       <c r="D5">
-        <v>0.45146365799999999</v>
+        <v>0.32719437200000001</v>
       </c>
       <c r="E5">
-        <v>0.32600509700000002</v>
+        <v>0.41323142699999998</v>
       </c>
       <c r="F5">
-        <v>0.26048189300000002</v>
+        <v>0.35174969699999997</v>
       </c>
       <c r="G5">
-        <v>0.37400142800000002</v>
-      </c>
-      <c r="H5">
-        <v>0.237916605</v>
-      </c>
-      <c r="I5">
-        <v>0.35036436799999998</v>
-      </c>
-      <c r="J5">
-        <v>0.37401780899999998</v>
-      </c>
-      <c r="K5">
-        <v>0.40516226799999999</v>
-      </c>
-      <c r="L5">
-        <v>0.29574097199999999</v>
-      </c>
-      <c r="M5">
-        <v>0.43159830799999999</v>
-      </c>
-      <c r="N5">
-        <v>0.35477568700000001</v>
-      </c>
-      <c r="O5">
-        <v>0.34899837700000003</v>
-      </c>
-      <c r="P5">
-        <v>0.35457351100000001</v>
-      </c>
-      <c r="Q5">
-        <v>0.28619340799999998</v>
-      </c>
-      <c r="R5">
-        <v>0.49831179399999997</v>
-      </c>
-      <c r="S5">
-        <v>0.24278460900000001</v>
-      </c>
-      <c r="T5">
-        <v>0.27899824299999998</v>
-      </c>
-      <c r="U5">
-        <v>0.42311690699999999</v>
-      </c>
-      <c r="V5">
-        <v>0.41267522200000001</v>
-      </c>
-      <c r="W5">
-        <v>0.26567793299999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
+        <v>0.408912844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>0.62357437000000004</v>
+        <v>0.68433711699999999</v>
       </c>
       <c r="C6">
-        <v>0.57382170399999999</v>
+        <v>0.77434045699999998</v>
       </c>
       <c r="D6">
-        <v>0.64408755399999995</v>
+        <v>0.79124887200000005</v>
+      </c>
+      <c r="E6">
+        <v>0.79840673699999998</v>
+      </c>
+      <c r="F6">
+        <v>0.72291285999999999</v>
       </c>
       <c r="G6">
-        <v>0.52181829499999999</v>
-      </c>
-      <c r="H6">
-        <v>0.68709305600000004</v>
-      </c>
-      <c r="I6">
-        <v>0.50346064099999999</v>
-      </c>
-      <c r="J6">
-        <v>0.58674214300000005</v>
-      </c>
-      <c r="K6">
-        <v>0.70963411399999998</v>
-      </c>
-      <c r="L6">
-        <v>0.71090014999999995</v>
-      </c>
-      <c r="M6">
-        <v>0.65846701600000002</v>
-      </c>
-      <c r="O6">
-        <v>0.74212620699999998</v>
-      </c>
-      <c r="P6">
-        <v>0.68697894299999995</v>
-      </c>
-      <c r="Q6">
-        <v>0.78030047599999997</v>
-      </c>
-      <c r="R6">
-        <v>0.78232831899999999</v>
-      </c>
-      <c r="S6">
-        <v>0.76830991699999995</v>
-      </c>
-      <c r="T6">
-        <v>0.75706812800000001</v>
-      </c>
-      <c r="U6">
-        <v>0.71112708499999999</v>
-      </c>
-      <c r="V6">
-        <v>0.67742841300000001</v>
-      </c>
-      <c r="W6">
-        <v>0.75698025199999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>0.62565037099999998</v>
-      </c>
-      <c r="C7">
-        <v>0.61532075500000005</v>
-      </c>
-      <c r="D7">
-        <v>0.590426122</v>
-      </c>
-      <c r="E7">
-        <v>0.55049380299999995</v>
-      </c>
-      <c r="F7">
-        <v>0.71276642800000001</v>
-      </c>
-      <c r="G7">
-        <v>0.55477363700000004</v>
-      </c>
-      <c r="H7">
-        <v>0.68080244199999995</v>
-      </c>
-      <c r="I7">
-        <v>0.52896005400000001</v>
-      </c>
-      <c r="J7">
-        <v>0.65347178500000003</v>
-      </c>
-      <c r="K7">
-        <v>0.66029479099999999</v>
-      </c>
-      <c r="L7">
-        <v>0.65861389999999997</v>
-      </c>
-      <c r="M7">
-        <v>0.62149551999999997</v>
-      </c>
-      <c r="N7">
-        <v>0.66856544799999995</v>
-      </c>
-      <c r="O7">
-        <v>0.71521672300000005</v>
-      </c>
-      <c r="P7">
-        <v>0.65448690200000004</v>
-      </c>
-      <c r="Q7">
-        <v>0.75633178899999998</v>
-      </c>
-      <c r="R7">
-        <v>0.75240850999999997</v>
-      </c>
-      <c r="S7">
-        <v>0.73469325699999999</v>
-      </c>
-      <c r="T7">
-        <v>0.70561594000000005</v>
-      </c>
-      <c r="U7">
-        <v>0.74563199300000005</v>
-      </c>
-      <c r="V7">
-        <v>0.71016764799999998</v>
-      </c>
-      <c r="W7">
-        <v>0.62740485499999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>0.350917388</v>
-      </c>
-      <c r="C8">
-        <v>0.35458019299999999</v>
-      </c>
-      <c r="D8">
-        <v>0.35325787400000003</v>
-      </c>
-      <c r="G8">
-        <v>0.28933954699999997</v>
-      </c>
-      <c r="H8">
-        <v>0.32548577400000001</v>
-      </c>
-      <c r="I8">
-        <v>0.38848894899999997</v>
-      </c>
-      <c r="J8">
-        <v>0.37233476399999998</v>
-      </c>
-      <c r="K8">
-        <v>0.41948666699999998</v>
-      </c>
-      <c r="L8">
-        <v>0.35441469599999997</v>
-      </c>
-      <c r="M8">
-        <v>0.30345430000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.49883470099999999</v>
-      </c>
-      <c r="P8">
-        <v>0.407554586</v>
-      </c>
-      <c r="Q8">
-        <v>0.64686286699999995</v>
-      </c>
-      <c r="R8">
-        <v>0.59661379299999995</v>
-      </c>
-      <c r="S8">
-        <v>0.62065883700000002</v>
-      </c>
-      <c r="T8">
-        <v>0.39600634400000001</v>
-      </c>
-      <c r="U8">
-        <v>0.384655731</v>
-      </c>
-      <c r="V8">
-        <v>0.55474320700000002</v>
-      </c>
-      <c r="W8">
-        <v>0.30598217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>0.44198482300000003</v>
-      </c>
-      <c r="C9">
-        <v>0.424125064</v>
-      </c>
-      <c r="D9">
-        <v>0.45104285999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.28257325999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.54379897399999999</v>
-      </c>
-      <c r="G9">
-        <v>0.454546218</v>
-      </c>
-      <c r="H9">
-        <v>0.50741237100000003</v>
-      </c>
-      <c r="I9">
-        <v>0.415019003</v>
-      </c>
-      <c r="J9">
-        <v>0.44144241699999998</v>
-      </c>
-      <c r="K9">
-        <v>0.48350393200000003</v>
-      </c>
-      <c r="L9">
-        <v>0.47762123499999998</v>
-      </c>
-      <c r="M9">
-        <v>0.42063540300000002</v>
-      </c>
-      <c r="N9">
-        <v>0.40897244799999999</v>
-      </c>
-      <c r="O9">
-        <v>0.580259372</v>
-      </c>
-      <c r="P9">
-        <v>0.55983216199999997</v>
-      </c>
-      <c r="Q9">
-        <v>0.64803001800000004</v>
-      </c>
-      <c r="R9">
-        <v>0.67213953699999995</v>
-      </c>
-      <c r="S9">
-        <v>0.62787434799999997</v>
-      </c>
-      <c r="T9">
-        <v>0.467334158</v>
-      </c>
-      <c r="U9">
-        <v>0.53238484100000005</v>
-      </c>
-      <c r="V9">
-        <v>0.58250971799999995</v>
-      </c>
-      <c r="W9">
-        <v>0.52110982699999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>0.43877790900000002</v>
-      </c>
-      <c r="C10">
-        <v>0.41829071299999998</v>
-      </c>
-      <c r="D10">
-        <v>0.38605007600000002</v>
-      </c>
-      <c r="E10">
-        <v>0.41111634400000002</v>
-      </c>
-      <c r="F10">
-        <v>0.50881295000000004</v>
-      </c>
-      <c r="G10">
-        <v>0.36699100499999998</v>
-      </c>
-      <c r="H10">
-        <v>0.42395486199999999</v>
-      </c>
-      <c r="I10">
-        <v>0.51188116299999997</v>
-      </c>
-      <c r="J10">
-        <v>0.52746765799999995</v>
-      </c>
-      <c r="K10">
-        <v>0.43424518899999998</v>
-      </c>
-      <c r="L10">
-        <v>0.47954896800000002</v>
-      </c>
-      <c r="M10">
-        <v>0.38357414899999998</v>
-      </c>
-      <c r="N10">
-        <v>0.41255869099999998</v>
-      </c>
-      <c r="O10">
-        <v>0.62809034900000005</v>
-      </c>
-      <c r="P10">
-        <v>0.57899064099999997</v>
-      </c>
-      <c r="Q10">
-        <v>0.73824736000000002</v>
-      </c>
-      <c r="R10">
-        <v>0.72404900100000003</v>
-      </c>
-      <c r="S10">
-        <v>0.69873378100000005</v>
-      </c>
-      <c r="T10">
-        <v>0.54161891600000001</v>
-      </c>
-      <c r="U10">
-        <v>0.60694360000000003</v>
-      </c>
-      <c r="V10">
-        <v>0.60074876099999996</v>
-      </c>
-      <c r="W10">
-        <v>0.47287105899999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>0.57057678499999998</v>
-      </c>
-      <c r="C11">
-        <v>0.51547782799999997</v>
-      </c>
-      <c r="D11">
-        <v>0.54466270699999997</v>
-      </c>
-      <c r="E11">
-        <v>0.50646403900000003</v>
-      </c>
-      <c r="F11">
-        <v>0.54781412600000001</v>
-      </c>
-      <c r="G11">
-        <v>0.55763605000000005</v>
-      </c>
-      <c r="H11">
-        <v>0.68154280899999997</v>
-      </c>
-      <c r="I11">
-        <v>0.61347462900000005</v>
-      </c>
-      <c r="J11">
-        <v>0.63183235699999996</v>
-      </c>
-      <c r="K11">
-        <v>0.57278422299999998</v>
-      </c>
-      <c r="L11">
-        <v>0.67585862100000005</v>
-      </c>
-      <c r="M11">
-        <v>0.52532882999999997</v>
-      </c>
-      <c r="N11">
-        <v>0.478538083</v>
-      </c>
-      <c r="O11">
-        <v>0.74617718899999996</v>
-      </c>
-      <c r="P11">
-        <v>0.64434575900000002</v>
-      </c>
-      <c r="Q11">
-        <v>0.85950251899999996</v>
-      </c>
-      <c r="R11">
-        <v>0.76799506900000003</v>
-      </c>
-      <c r="S11">
-        <v>0.77629066400000002</v>
-      </c>
-      <c r="T11">
-        <v>0.76080002400000002</v>
-      </c>
-      <c r="U11">
-        <v>0.69816675500000003</v>
-      </c>
-      <c r="V11">
-        <v>0.72221950199999996</v>
-      </c>
-      <c r="W11">
-        <v>0.72760909600000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>0.63843019700000003</v>
-      </c>
-      <c r="C12">
-        <v>0.57843620399999995</v>
-      </c>
-      <c r="D12">
-        <v>0.66827988000000005</v>
-      </c>
-      <c r="E12">
-        <v>0.55204467400000001</v>
-      </c>
-      <c r="F12">
-        <v>0.65321896099999999</v>
-      </c>
-      <c r="G12">
-        <v>0.65204250900000005</v>
-      </c>
-      <c r="H12">
-        <v>0.71902412599999999</v>
-      </c>
-      <c r="I12">
-        <v>0.63672113500000005</v>
-      </c>
-      <c r="J12">
-        <v>0.61766664699999996</v>
-      </c>
-      <c r="K12">
-        <v>0.65362171599999996</v>
-      </c>
-      <c r="L12">
-        <v>0.74657900700000002</v>
-      </c>
-      <c r="M12">
-        <v>0.65306346900000001</v>
-      </c>
-      <c r="N12">
-        <v>0.53458279900000005</v>
-      </c>
-      <c r="O12">
-        <v>0.78324450700000003</v>
-      </c>
-      <c r="P12">
-        <v>0.72900149999999997</v>
-      </c>
-      <c r="Q12">
-        <v>0.86326414600000001</v>
-      </c>
-      <c r="R12">
-        <v>0.79877431799999998</v>
-      </c>
-      <c r="S12">
-        <v>0.82889175900000001</v>
-      </c>
-      <c r="T12">
-        <v>0.77745251699999995</v>
-      </c>
-      <c r="U12">
-        <v>0.71243494200000002</v>
-      </c>
-      <c r="V12">
-        <v>0.72903262700000004</v>
-      </c>
-      <c r="W12">
-        <v>0.82791107500000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>0.34009305400000001</v>
-      </c>
-      <c r="C13">
-        <v>0.294049913</v>
-      </c>
-      <c r="D13">
-        <v>0.31556099300000001</v>
-      </c>
-      <c r="E13">
-        <v>0.409218311</v>
-      </c>
-      <c r="F13">
-        <v>0.339712919</v>
-      </c>
-      <c r="G13">
-        <v>0.36052384900000001</v>
-      </c>
-      <c r="H13">
-        <v>0.341110091</v>
-      </c>
-      <c r="I13">
-        <v>0.317371556</v>
-      </c>
-      <c r="J13">
-        <v>0.30942024000000001</v>
-      </c>
-      <c r="K13">
-        <v>0.33405456700000002</v>
-      </c>
-      <c r="L13">
-        <v>0.42139146100000002</v>
-      </c>
-      <c r="M13">
-        <v>0.28840876500000001</v>
-      </c>
-      <c r="N13">
-        <v>0.3403912</v>
-      </c>
-      <c r="O13">
-        <v>0.60999079499999997</v>
-      </c>
-      <c r="P13">
-        <v>0.53886526999999995</v>
-      </c>
-      <c r="Q13">
-        <v>0.73714133400000004</v>
-      </c>
-      <c r="R13">
-        <v>0.71926468899999996</v>
-      </c>
-      <c r="S13">
-        <v>0.697186164</v>
-      </c>
-      <c r="T13">
-        <v>0.68067152200000003</v>
-      </c>
-      <c r="U13">
-        <v>0.39623288299999998</v>
-      </c>
-      <c r="V13">
-        <v>0.440445531</v>
-      </c>
-      <c r="W13">
-        <v>0.62164955</v>
+        <v>0.75977855500000002</v>
       </c>
     </row>
   </sheetData>

--- a/submission/source_data.xlsx
+++ b/submission/source_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Fig. 2" sheetId="1" r:id="rId1"/>
@@ -1939,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,8 +2486,8 @@
         <v>0.30598217</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9">
@@ -2850,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
